--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/77/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/77/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42884</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3428.84</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.67666</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3676.66</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.76299</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>3762.99</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>3.83053</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3830.53</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>3.87499</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>3874.99</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>3.89398</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3893.98</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278803</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>3.92309</v>
+        <v>9.97739</v>
       </c>
       <c r="C11" t="n">
-        <v>3923.09</v>
+        <v>9977.389999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309728</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>3.94682</v>
+        <v>10.9075</v>
       </c>
       <c r="C12" t="n">
-        <v>3946.82</v>
+        <v>10907.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340653</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>3.96614</v>
+        <v>11.7898</v>
       </c>
       <c r="C13" t="n">
-        <v>3966.14</v>
+        <v>11789.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371578</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>3.98349</v>
+        <v>12.617</v>
       </c>
       <c r="C14" t="n">
-        <v>3983.49</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402503</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>3.99974</v>
+        <v>13.4437</v>
       </c>
       <c r="C15" t="n">
-        <v>3999.74</v>
+        <v>13443.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433428</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>4.01355</v>
+        <v>13.9763</v>
       </c>
       <c r="C16" t="n">
-        <v>4013.55</v>
+        <v>13976.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464349</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>4.02744</v>
+        <v>14.2399</v>
       </c>
       <c r="C17" t="n">
-        <v>4027.44</v>
+        <v>14239.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495274</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>4.03975</v>
+        <v>14.263</v>
       </c>
       <c r="C18" t="n">
-        <v>4039.75</v>
+        <v>14263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526199</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>4.05115</v>
+        <v>14.2031</v>
       </c>
       <c r="C19" t="n">
-        <v>4051.15</v>
+        <v>14203.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557124</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>4.0614</v>
+        <v>14.1568</v>
       </c>
       <c r="C20" t="n">
-        <v>4061.4</v>
+        <v>14156.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588049</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>4.07152</v>
+        <v>14.101</v>
       </c>
       <c r="C21" t="n">
-        <v>4071.52</v>
+        <v>14101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6190909999999999</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>4.08059</v>
+        <v>14.0391</v>
       </c>
       <c r="C22" t="n">
-        <v>4080.59</v>
+        <v>14039.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650268</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>4.08929</v>
+        <v>13.975</v>
       </c>
       <c r="C23" t="n">
-        <v>4089.29</v>
+        <v>13975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681441</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>4.09737</v>
+        <v>13.9074</v>
       </c>
       <c r="C24" t="n">
-        <v>4097.37</v>
+        <v>13907.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126130000000001</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>4.104979999999999</v>
+        <v>13.8346</v>
       </c>
       <c r="C25" t="n">
-        <v>4104.98</v>
+        <v>13834.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74379</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>4.112109999999999</v>
+        <v>13.7585</v>
       </c>
       <c r="C26" t="n">
-        <v>4112.11</v>
+        <v>13758.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774963</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>4.11877</v>
+        <v>13.6761</v>
       </c>
       <c r="C27" t="n">
-        <v>4118.77</v>
+        <v>13676.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806135</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>4.12503</v>
+        <v>13.589</v>
       </c>
       <c r="C28" t="n">
-        <v>4125.03</v>
+        <v>13589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8373119999999999</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>4.130920000000001</v>
+        <v>13.4952</v>
       </c>
       <c r="C29" t="n">
-        <v>4130.92</v>
+        <v>13495.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868485</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>4.13642</v>
+        <v>13.3982</v>
       </c>
       <c r="C30" t="n">
-        <v>4136.42</v>
+        <v>13398.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899657</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>4.14156</v>
+        <v>13.2922</v>
       </c>
       <c r="C31" t="n">
-        <v>4141.56</v>
+        <v>13292.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930835</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>4.146380000000001</v>
+        <v>13.1826</v>
       </c>
       <c r="C32" t="n">
-        <v>4146.38</v>
+        <v>13182.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620069999999999</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>4.15086</v>
+        <v>13.0643</v>
       </c>
       <c r="C33" t="n">
-        <v>4150.86</v>
+        <v>13064.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993184</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>4.15503</v>
+        <v>12.9407</v>
       </c>
       <c r="C34" t="n">
-        <v>4155.03</v>
+        <v>12940.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02448</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>4.15892</v>
+        <v>12.8102</v>
       </c>
       <c r="C35" t="n">
-        <v>4158.92</v>
+        <v>12810.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05586</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>4.16255</v>
+        <v>12.6722</v>
       </c>
       <c r="C36" t="n">
-        <v>4162.55</v>
+        <v>12672.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08724</v>
+        <v>1.08619</v>
       </c>
       <c r="B37" t="n">
-        <v>4.16591</v>
+        <v>12.5292</v>
       </c>
       <c r="C37" t="n">
-        <v>4165.91</v>
+        <v>12529.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11862</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>4.168970000000001</v>
+        <v>12.3766</v>
       </c>
       <c r="C38" t="n">
-        <v>4168.97</v>
+        <v>12376.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15</v>
+        <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>4.1718</v>
+        <v>12.2205</v>
       </c>
       <c r="C39" t="n">
-        <v>4171.8</v>
+        <v>12220.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18139</v>
+        <v>1.17926</v>
       </c>
       <c r="B40" t="n">
-        <v>4.17438</v>
+        <v>12.7918</v>
       </c>
       <c r="C40" t="n">
-        <v>4174.38</v>
+        <v>12791.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21276</v>
+        <v>1.20998</v>
       </c>
       <c r="B41" t="n">
-        <v>4.17671</v>
+        <v>11.0649</v>
       </c>
       <c r="C41" t="n">
-        <v>4176.71</v>
+        <v>11064.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24414</v>
+        <v>1.24071</v>
       </c>
       <c r="B42" t="n">
-        <v>4.17881</v>
+        <v>13.2076</v>
       </c>
       <c r="C42" t="n">
-        <v>4178.81</v>
+        <v>13207.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27553</v>
+        <v>1.27115</v>
       </c>
       <c r="B43" t="n">
-        <v>4.18066</v>
+        <v>11.3</v>
       </c>
       <c r="C43" t="n">
-        <v>4180.66</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30691</v>
+        <v>1.30262</v>
       </c>
       <c r="B44" t="n">
-        <v>4.18228</v>
+        <v>11.4119</v>
       </c>
       <c r="C44" t="n">
-        <v>4182.28</v>
+        <v>11411.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33829</v>
+        <v>1.33361</v>
       </c>
       <c r="B45" t="n">
-        <v>4.1837</v>
+        <v>11.6452</v>
       </c>
       <c r="C45" t="n">
-        <v>4183.7</v>
+        <v>11645.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36967</v>
+        <v>1.36421</v>
       </c>
       <c r="B46" t="n">
-        <v>4.18487</v>
+        <v>11.7246</v>
       </c>
       <c r="C46" t="n">
-        <v>4184.87</v>
+        <v>11724.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40105</v>
+        <v>1.39553</v>
       </c>
       <c r="B47" t="n">
-        <v>4.18582</v>
+        <v>11.4131</v>
       </c>
       <c r="C47" t="n">
-        <v>4185.82</v>
+        <v>11413.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43243</v>
+        <v>1.42631</v>
       </c>
       <c r="B48" t="n">
-        <v>4.18657</v>
+        <v>11.2296</v>
       </c>
       <c r="C48" t="n">
-        <v>4186.57</v>
+        <v>11229.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46381</v>
+        <v>1.45712</v>
       </c>
       <c r="B49" t="n">
-        <v>4.18709</v>
+        <v>11.0301</v>
       </c>
       <c r="C49" t="n">
-        <v>4187.09</v>
+        <v>11030.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49519</v>
+        <v>1.48814</v>
       </c>
       <c r="B50" t="n">
-        <v>4.18741</v>
+        <v>10.9358</v>
       </c>
       <c r="C50" t="n">
-        <v>4187.41</v>
+        <v>10935.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52657</v>
+        <v>1.51916</v>
       </c>
       <c r="B51" t="n">
-        <v>4.1875</v>
+        <v>10.6699</v>
       </c>
       <c r="C51" t="n">
-        <v>4187.5</v>
+        <v>10669.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55795</v>
+        <v>1.55018</v>
       </c>
       <c r="B52" t="n">
-        <v>4.187390000000001</v>
+        <v>10.3622</v>
       </c>
       <c r="C52" t="n">
-        <v>4187.39</v>
+        <v>10362.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58933</v>
+        <v>1.58119</v>
       </c>
       <c r="B53" t="n">
-        <v>4.18705</v>
+        <v>10.2038</v>
       </c>
       <c r="C53" t="n">
-        <v>4187.05</v>
+        <v>10203.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62063</v>
+        <v>1.6121</v>
       </c>
       <c r="B54" t="n">
-        <v>4.18649</v>
+        <v>9.974830000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>4186.49</v>
+        <v>9974.83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6516</v>
+        <v>1.6433</v>
       </c>
       <c r="B55" t="n">
-        <v>4.185689999999999</v>
+        <v>9.819420000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>4185.69</v>
+        <v>9819.42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68257</v>
+        <v>1.67399</v>
       </c>
       <c r="B56" t="n">
-        <v>4.18458</v>
+        <v>9.597329999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>4184.58</v>
+        <v>9597.33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71353</v>
+        <v>1.70528</v>
       </c>
       <c r="B57" t="n">
-        <v>4.18323</v>
+        <v>9.3344</v>
       </c>
       <c r="C57" t="n">
-        <v>4183.23</v>
+        <v>9334.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.7445</v>
+        <v>1.73604</v>
       </c>
       <c r="B58" t="n">
-        <v>4.18166</v>
+        <v>9.105530000000002</v>
       </c>
       <c r="C58" t="n">
-        <v>4181.66</v>
+        <v>9105.530000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77547</v>
+        <v>1.76724</v>
       </c>
       <c r="B59" t="n">
-        <v>4.17986</v>
+        <v>9.025879999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>4179.86</v>
+        <v>9025.879999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80644</v>
+        <v>1.79821</v>
       </c>
       <c r="B60" t="n">
-        <v>4.177840000000001</v>
+        <v>8.80836</v>
       </c>
       <c r="C60" t="n">
-        <v>4177.84</v>
+        <v>8808.360000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8374</v>
+        <v>1.82908</v>
       </c>
       <c r="B61" t="n">
-        <v>4.17563</v>
+        <v>8.62449</v>
       </c>
       <c r="C61" t="n">
-        <v>4175.63</v>
+        <v>8624.49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86837</v>
+        <v>1.86034</v>
       </c>
       <c r="B62" t="n">
-        <v>4.1732</v>
+        <v>8.43857</v>
       </c>
       <c r="C62" t="n">
-        <v>4173.2</v>
+        <v>8438.57</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89923</v>
+        <v>1.89097</v>
       </c>
       <c r="B63" t="n">
-        <v>4.17057</v>
+        <v>8.273200000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>4170.57</v>
+        <v>8273.200000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92979</v>
+        <v>1.9223</v>
       </c>
       <c r="B64" t="n">
-        <v>4.167680000000001</v>
+        <v>8.1439</v>
       </c>
       <c r="C64" t="n">
-        <v>4167.68</v>
+        <v>8143.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96034</v>
+        <v>1.95337</v>
       </c>
       <c r="B65" t="n">
-        <v>4.16455</v>
+        <v>7.935420000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>4164.55</v>
+        <v>7935.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.9909</v>
+        <v>1.98381</v>
       </c>
       <c r="B66" t="n">
-        <v>4.16124</v>
+        <v>7.83692</v>
       </c>
       <c r="C66" t="n">
-        <v>4161.24</v>
+        <v>7836.92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02145</v>
+        <v>2.01526</v>
       </c>
       <c r="B67" t="n">
-        <v>4.1577</v>
+        <v>7.70686</v>
       </c>
       <c r="C67" t="n">
-        <v>4157.7</v>
+        <v>7706.86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05219</v>
+        <v>2.04599</v>
       </c>
       <c r="B68" t="n">
-        <v>4.153890000000001</v>
+        <v>7.592560000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>4153.89</v>
+        <v>7592.56</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08376</v>
+        <v>2.07674</v>
       </c>
       <c r="B69" t="n">
-        <v>4.149760000000001</v>
+        <v>7.4532</v>
       </c>
       <c r="C69" t="n">
-        <v>4149.76</v>
+        <v>7453.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11534</v>
+        <v>2.10808</v>
       </c>
       <c r="B70" t="n">
-        <v>4.14537</v>
+        <v>7.33084</v>
       </c>
       <c r="C70" t="n">
-        <v>4145.37</v>
+        <v>7330.84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14691</v>
+        <v>2.13915</v>
       </c>
       <c r="B71" t="n">
-        <v>4.140689999999999</v>
+        <v>7.22909</v>
       </c>
       <c r="C71" t="n">
-        <v>4140.69</v>
+        <v>7229.09</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17848</v>
+        <v>2.17021</v>
       </c>
       <c r="B72" t="n">
-        <v>4.13574</v>
+        <v>7.143470000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>4135.74</v>
+        <v>7143.47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.21005</v>
+        <v>2.20078</v>
       </c>
       <c r="B73" t="n">
-        <v>4.13055</v>
+        <v>7.01546</v>
       </c>
       <c r="C73" t="n">
-        <v>4130.55</v>
+        <v>7015.46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24157</v>
+        <v>2.23224</v>
       </c>
       <c r="B74" t="n">
-        <v>4.12507</v>
+        <v>6.938149999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>4125.07</v>
+        <v>6938.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27229</v>
+        <v>2.26372</v>
       </c>
       <c r="B75" t="n">
-        <v>4.11927</v>
+        <v>6.84722</v>
       </c>
       <c r="C75" t="n">
-        <v>4119.27</v>
+        <v>6847.22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30301</v>
+        <v>2.29386</v>
       </c>
       <c r="B76" t="n">
-        <v>4.11299</v>
+        <v>6.773479999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>4112.99</v>
+        <v>6773.48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33373</v>
+        <v>2.32467</v>
       </c>
       <c r="B77" t="n">
-        <v>4.10632</v>
+        <v>6.67873</v>
       </c>
       <c r="C77" t="n">
-        <v>4106.32</v>
+        <v>6678.73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36445</v>
+        <v>2.3566</v>
       </c>
       <c r="B78" t="n">
-        <v>4.09926</v>
+        <v>6.60688</v>
       </c>
       <c r="C78" t="n">
-        <v>4099.26</v>
+        <v>6606.88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39517</v>
+        <v>2.38801</v>
       </c>
       <c r="B79" t="n">
-        <v>4.0919</v>
+        <v>6.53254</v>
       </c>
       <c r="C79" t="n">
-        <v>4091.9</v>
+        <v>6532.54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42589</v>
+        <v>2.41793</v>
       </c>
       <c r="B80" t="n">
-        <v>4.08427</v>
+        <v>6.46273</v>
       </c>
       <c r="C80" t="n">
-        <v>4084.27</v>
+        <v>6462.73</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45661</v>
+        <v>2.44786</v>
       </c>
       <c r="B81" t="n">
-        <v>4.07629</v>
+        <v>6.39193</v>
       </c>
       <c r="C81" t="n">
-        <v>4076.29</v>
+        <v>6391.93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48733</v>
+        <v>2.47782</v>
       </c>
       <c r="B82" t="n">
-        <v>4.06795</v>
+        <v>6.33025</v>
       </c>
       <c r="C82" t="n">
-        <v>4067.95</v>
+        <v>6330.25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51805</v>
+        <v>2.50777</v>
       </c>
       <c r="B83" t="n">
-        <v>4.05921</v>
+        <v>6.27044</v>
       </c>
       <c r="C83" t="n">
-        <v>4059.21</v>
+        <v>6270.44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54876</v>
+        <v>2.53642</v>
       </c>
       <c r="B84" t="n">
-        <v>4.05006</v>
+        <v>6.21633</v>
       </c>
       <c r="C84" t="n">
-        <v>4050.06</v>
+        <v>6216.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57949</v>
+        <v>2.56949</v>
       </c>
       <c r="B85" t="n">
-        <v>4.04046</v>
+        <v>6.153390000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>4040.46</v>
+        <v>6153.39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61021</v>
+        <v>2.60263</v>
       </c>
       <c r="B86" t="n">
-        <v>4.03043</v>
+        <v>6.10074</v>
       </c>
       <c r="C86" t="n">
-        <v>4030.43</v>
+        <v>6100.74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64093</v>
+        <v>2.63563</v>
       </c>
       <c r="B87" t="n">
-        <v>4.01985</v>
+        <v>6.04824</v>
       </c>
       <c r="C87" t="n">
-        <v>4019.85</v>
+        <v>6048.24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67165</v>
+        <v>2.6668</v>
       </c>
       <c r="B88" t="n">
-        <v>4.00868</v>
+        <v>5.99141</v>
       </c>
       <c r="C88" t="n">
-        <v>4008.68</v>
+        <v>5991.41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70237</v>
+        <v>2.69749</v>
       </c>
       <c r="B89" t="n">
-        <v>3.99688</v>
+        <v>5.95812</v>
       </c>
       <c r="C89" t="n">
-        <v>3996.88</v>
+        <v>5958.12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73309</v>
+        <v>2.7281</v>
       </c>
       <c r="B90" t="n">
-        <v>3.98453</v>
+        <v>5.90713</v>
       </c>
       <c r="C90" t="n">
-        <v>3984.53</v>
+        <v>5907.13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7638</v>
+        <v>2.75879</v>
       </c>
       <c r="B91" t="n">
-        <v>3.97149</v>
+        <v>5.87377</v>
       </c>
       <c r="C91" t="n">
-        <v>3971.49</v>
+        <v>5873.77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79374</v>
+        <v>2.79079</v>
       </c>
       <c r="B92" t="n">
-        <v>3.95782</v>
+        <v>5.83071</v>
       </c>
       <c r="C92" t="n">
-        <v>3957.82</v>
+        <v>5830.71</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82573</v>
+        <v>2.82034</v>
       </c>
       <c r="B93" t="n">
-        <v>3.94264</v>
+        <v>5.82283</v>
       </c>
       <c r="C93" t="n">
-        <v>3942.64</v>
+        <v>5822.83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85715</v>
+        <v>2.84914</v>
       </c>
       <c r="B94" t="n">
-        <v>3.92692</v>
+        <v>5.80393</v>
       </c>
       <c r="C94" t="n">
-        <v>3926.92</v>
+        <v>5803.93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88823</v>
+        <v>2.87794</v>
       </c>
       <c r="B95" t="n">
-        <v>3.91068</v>
+        <v>5.786960000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>3910.68</v>
+        <v>5786.96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91886</v>
+        <v>2.90674</v>
       </c>
       <c r="B96" t="n">
-        <v>3.89389</v>
+        <v>5.76486</v>
       </c>
       <c r="C96" t="n">
-        <v>3893.89</v>
+        <v>5764.86</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94903</v>
+        <v>2.93554</v>
       </c>
       <c r="B97" t="n">
-        <v>3.87651</v>
+        <v>5.74848</v>
       </c>
       <c r="C97" t="n">
-        <v>3876.51</v>
+        <v>5748.48</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9807</v>
+        <v>2.96434</v>
       </c>
       <c r="B98" t="n">
-        <v>3.8574</v>
+        <v>5.71636</v>
       </c>
       <c r="C98" t="n">
-        <v>3857.4</v>
+        <v>5716.36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01221</v>
+        <v>2.99314</v>
       </c>
       <c r="B99" t="n">
-        <v>3.8374</v>
+        <v>5.691380000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>3837.4</v>
+        <v>5691.38</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04308</v>
+        <v>3.02194</v>
       </c>
       <c r="B100" t="n">
-        <v>3.81676</v>
+        <v>5.66911</v>
       </c>
       <c r="C100" t="n">
-        <v>3816.76</v>
+        <v>5669.11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0736</v>
+        <v>3.05115</v>
       </c>
       <c r="B101" t="n">
-        <v>3.79541</v>
+        <v>5.65835</v>
       </c>
       <c r="C101" t="n">
-        <v>3795.41</v>
+        <v>5658.35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10428</v>
+        <v>3.0846</v>
       </c>
       <c r="B102" t="n">
-        <v>3.77265</v>
+        <v>5.61755</v>
       </c>
       <c r="C102" t="n">
-        <v>3772.65</v>
+        <v>5617.55</v>
       </c>
     </row>
   </sheetData>
